--- a/src/resources/testdata/trackTestdata.xlsx
+++ b/src/resources/testdata/trackTestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivam_kushwaha\eclipse-workspace\ShoppingPortal\src\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A4194D-EFAF-48F3-84C9-79DFE3CBB6D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEFAEA4-E9B7-4ED7-B85F-DD592D343563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C5E69758-48B3-4D4F-90F2-E815ECD79B59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>orderid</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>sk@g.com</t>
+  </si>
+  <si>
+    <t>sj@g.com</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
@@ -408,52 +420,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBC9619-9AFD-4ABE-8061-1935EE7A155B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/testdata/trackTestdata.xlsx
+++ b/src/resources/testdata/trackTestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivam_kushwaha\eclipse-workspace\ShoppingPortal\src\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEFAEA4-E9B7-4ED7-B85F-DD592D343563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4453E1A2-8724-4C49-88CD-7A1D2A5B38A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C5E69758-48B3-4D4F-90F2-E815ECD79B59}"/>
   </bookViews>
@@ -48,23 +48,23 @@
     <t>sk@g.com</t>
   </si>
   <si>
-    <t>sj@g.com</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
     <t>Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected </t>
+  </si>
+  <si>
+    <t>sw@g.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +80,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,9 +116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -423,20 +438,20 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -444,10 +459,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -458,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -469,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -477,10 +492,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -491,5 +506,6 @@
     <hyperlink ref="B5" r:id="rId4" xr:uid="{865AF071-BCD0-4762-8941-3A4A7F7220CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>